--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23digitale/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22695D6-5BB0-8E40-9E1C-D6F13CF00EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D795ED-84F8-3440-8CAB-A40B712AE01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="10580" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
+    <workbookView xWindow="4260" yWindow="2720" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>filename</t>
   </si>
@@ -219,14 +219,18 @@
   </si>
   <si>
     <t>stained-glass-thinker-1.png</t>
+  </si>
+  <si>
+    <t>berryComputationalTurnThinking2011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="dd\.mm"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -271,7 +275,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +555,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -753,6 +757,9 @@
         <f t="shared" si="3"/>
         <v>3-Storing-Versioning</v>
       </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
       <c r="L4" t="s">
         <v>23</v>
       </c>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23entangled/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2D88CD-4952-DE44-A7FC-E3D927ED3EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A58CC9-5531-5D48-8890-43B5441728FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>filename</t>
   </si>
@@ -172,6 +172,9 @@
   <si>
     <t>1. Get oriented to the way this course works.
 2. Explain why the story of each Abrahamic faith cannot be understood without the others.</t>
+  </si>
+  <si>
+    <t>Describe how Abraham became a father of faith to Judaism, Christianity, and Islam.</t>
   </si>
 </sst>
 </file>
@@ -219,15 +222,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,7 +508,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,7 +521,7 @@
     <col min="8" max="8" width="13.1640625" customWidth="1"/>
     <col min="10" max="10" width="31.83203125" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -557,7 +558,7 @@
       <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -597,7 +598,7 @@
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G2,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>1-Introduction</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" t="s">
         <v>44</v>
       </c>
       <c r="M2" t="str">
@@ -647,6 +648,9 @@
       <c r="J3" t="str">
         <f t="shared" ref="J3:J12" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G3,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>2-Monotheism</v>
+      </c>
+      <c r="L3" t="s">
+        <v>45</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" si="0"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23entangled/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A58CC9-5531-5D48-8890-43B5441728FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5C88B2-DD98-5B40-A4B4-E26CC12FF6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>filename</t>
   </si>
@@ -92,15 +92,9 @@
     <t>Scripture &amp; Prophets</t>
   </si>
   <si>
-    <t>East &amp; West</t>
-  </si>
-  <si>
     <t>Messiah &amp; Covenant</t>
   </si>
   <si>
-    <t>Martyrs</t>
-  </si>
-  <si>
     <t>A New Prophet</t>
   </si>
   <si>
@@ -138,12 +132,6 @@
   </si>
   <si>
     <t>stone.jpg</t>
-  </si>
-  <si>
-    <t>fire.jpg</t>
-  </si>
-  <si>
-    <t>pebble-beach.jpg</t>
   </si>
   <si>
     <t>tallit.jpg</t>
@@ -175,6 +163,18 @@
   </si>
   <si>
     <t>Describe how Abraham became a father of faith to Judaism, Christianity, and Islam.</t>
+  </si>
+  <si>
+    <t>Trace the concept of revelation (prophecy and scripture) in its development in Judaism, Christianity, and Islam.</t>
+  </si>
+  <si>
+    <t>fire-pebble-beach.jpg</t>
+  </si>
+  <si>
+    <t>Martyrs/East &amp; West</t>
+  </si>
+  <si>
+    <t>Scripture II</t>
   </si>
 </sst>
 </file>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21747042-CCAC-104E-9F8E-130EDA7419B3}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,14 +592,14 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G2,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>1-Introduction</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M2" t="str">
         <f t="shared" ref="M2:M12" si="0">"["&amp;B2&amp;"]"</f>
@@ -643,14 +643,14 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J12" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G3,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>2-Monotheism</v>
       </c>
       <c r="L3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" si="0"/>
@@ -689,12 +689,15 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="5"/>
         <v>3-Scripture-Prophets</v>
       </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
         <v>[3]</v>
@@ -721,22 +724,25 @@
         <v>2023-11-06-4.md</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G5" t="str">
         <f>B5 &amp; ". " &amp; F5</f>
-        <v>4. Messiah &amp; Covenant</v>
+        <v>4. Scripture II</v>
       </c>
       <c r="H5">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="5"/>
-        <v>4-Messiah-Covenant</v>
+        <v>4-Scripture-II</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
@@ -764,22 +770,22 @@
         <v>2023-11-13-5.md</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G6" t="str">
         <f>B6 &amp; ". " &amp; F6</f>
-        <v>5. Parting of the Ways</v>
+        <v>5. Messiah &amp; Covenant</v>
       </c>
       <c r="H6">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="5"/>
-        <v>5-Parting-of-the-Ways</v>
+        <v>5-Messiah-Covenant</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
@@ -807,22 +813,22 @@
         <v>2023-11-20-6.md</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G7" t="str">
         <f>B7 &amp; ". " &amp; F7</f>
-        <v>6. Martyrs</v>
+        <v>6. Parting of the Ways</v>
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="5"/>
-        <v>6-Martyrs</v>
+        <v>6-Parting-of-the-Ways</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
@@ -850,22 +856,22 @@
         <v>2023-11-27-7.md</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="3"/>
-        <v>7. East &amp; West</v>
+        <v>7. Martyrs/East &amp; West</v>
       </c>
       <c r="H8">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="5"/>
-        <v>7-East-West</v>
+        <v>7-Martyrs/East-West</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
@@ -893,7 +899,7 @@
         <v>2023-12-04-8.md</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="3"/>
@@ -904,7 +910,7 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="5"/>
@@ -936,7 +942,7 @@
         <v>2023-12-11-9.md</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="3"/>
@@ -947,7 +953,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="5"/>
@@ -979,7 +985,7 @@
         <v>2023-12-18-10.md</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="3"/>
@@ -990,7 +996,7 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="5"/>
@@ -1022,7 +1028,7 @@
         <v>2024-01-08-11.md</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="3"/>
@@ -1033,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="5"/>
@@ -1065,7 +1071,7 @@
         <v>2024-01-15-12.md</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ref="G13:G16" si="7">B13 &amp; ". " &amp; F13</f>
@@ -1076,7 +1082,7 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" ref="J13:J16" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G13,".",""),"&amp;","")," ","-"),"--","-")</f>
@@ -1113,7 +1119,7 @@
         <v>2024-01-22-13.md</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="7"/>
@@ -1124,7 +1130,7 @@
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="9"/>
@@ -1156,7 +1162,7 @@
         <v>2024-01-29-14.md</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="7"/>
@@ -1167,7 +1173,7 @@
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="9"/>
@@ -1199,7 +1205,7 @@
         <v>2024-02-05-15.md</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="7"/>
@@ -1210,7 +1216,7 @@
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="9"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23entangled/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5C88B2-DD98-5B40-A4B4-E26CC12FF6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55F5324-0091-454E-88C3-15F6E3070AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>filename</t>
   </si>
@@ -101,15 +101,9 @@
     <t>A New Community</t>
   </si>
   <si>
-    <t>Rules &amp; Rulers</t>
-  </si>
-  <si>
     <t>Rabbis</t>
   </si>
   <si>
-    <t>Tradition</t>
-  </si>
-  <si>
     <t>A Common Language</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
   </si>
   <si>
     <t>palace-ceiling.jpg</t>
-  </si>
-  <si>
-    <t>leaf.jpg</t>
   </si>
   <si>
     <t>ox-bodl-laud-or-258-fol-10b.jpg</t>
@@ -175,6 +166,9 @@
   </si>
   <si>
     <t>Scripture II</t>
+  </si>
+  <si>
+    <t>Rules &amp; Rulers/Tradition</t>
   </si>
 </sst>
 </file>
@@ -505,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21747042-CCAC-104E-9F8E-130EDA7419B3}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,14 +586,14 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G2,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>1-Introduction</v>
       </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M2" t="str">
         <f t="shared" ref="M2:M12" si="0">"["&amp;B2&amp;"]"</f>
@@ -643,14 +637,14 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J12" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G3,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>2-Monotheism</v>
       </c>
       <c r="L3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" si="0"/>
@@ -689,14 +683,14 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="5"/>
         <v>3-Scripture-Prophets</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
@@ -724,7 +718,7 @@
         <v>2023-11-06-4.md</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G5" t="str">
         <f>B5 &amp; ". " &amp; F5</f>
@@ -735,14 +729,14 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="5"/>
         <v>4-Scripture-II</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
@@ -763,11 +757,11 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>45243</v>
+        <v>45250</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2023-11-13-5.md</v>
+        <v>2023-11-20-5.md</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -781,7 +775,7 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="5"/>
@@ -806,11 +800,11 @@
         <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>45250</v>
+        <v>45257</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2023-11-20-6.md</v>
+        <v>2023-11-27-6.md</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -824,7 +818,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="5"/>
@@ -849,14 +843,14 @@
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>45257</v>
+        <v>45264</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2023-11-27-7.md</v>
+        <v>2023-12-04-7.md</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="3"/>
@@ -867,7 +861,7 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="5"/>
@@ -892,14 +886,14 @@
         <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>45264</v>
+        <v>45271</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2023-12-04-8.md</v>
+        <v>2023-12-11-8.md</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="3"/>
@@ -910,7 +904,7 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="5"/>
@@ -935,11 +929,11 @@
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>45271</v>
+        <v>45278</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2023-12-11-9.md</v>
+        <v>2023-12-18-9.md</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -953,7 +947,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="5"/>
@@ -978,11 +972,11 @@
         <v>10</v>
       </c>
       <c r="C11" s="3">
-        <v>45278</v>
+        <v>45299</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2023-12-18-10.md</v>
+        <v>2024-01-08-10.md</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -996,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="5"/>
@@ -1021,29 +1015,29 @@
         <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>45299</v>
+        <v>45306</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>2024-01-08-11.md</v>
+        <v>2024-01-15-11.md</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="3"/>
-        <v>11. Rules &amp; Rulers</v>
+        <v>11. Rules &amp; Rulers/Tradition</v>
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="5"/>
-        <v>11-Rules-Rulers</v>
+        <v>11-Rules-Rulers/Tradition</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
@@ -1064,36 +1058,36 @@
         <v>12</v>
       </c>
       <c r="C13" s="3">
-        <v>45306</v>
+        <v>45313</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f t="shared" ref="D13:D16" si="6">IF(LEN(C13),TEXT(C13, "YYYY-MM-DD") &amp; "-" &amp; B13 &amp; ".md",)</f>
-        <v>2024-01-15-12.md</v>
+        <f t="shared" ref="D13:D15" si="6">IF(LEN(C13),TEXT(C13, "YYYY-MM-DD") &amp; "-" &amp; B13 &amp; ".md",)</f>
+        <v>2024-01-22-12.md</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" ref="G13:G16" si="7">B13 &amp; ". " &amp; F13</f>
-        <v>12. Tradition</v>
+        <f t="shared" ref="G13:G15" si="7">B13 &amp; ". " &amp; F13</f>
+        <v>12. A Common Language</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H16" si="8">B13</f>
+        <f t="shared" ref="H13:H15" si="8">B13</f>
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" ref="J13:J16" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G13,".",""),"&amp;","")," ","-"),"--","-")</f>
-        <v>12-Tradition</v>
+        <f t="shared" ref="J13:J15" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G13,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <v>12-A-Common-Language</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" ref="M13:M16" si="10">"["&amp;B13&amp;"]"</f>
+        <f t="shared" ref="M13:M15" si="10">"["&amp;B13&amp;"]"</f>
         <v>[12]</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" ref="N13:N16" si="11">"---
+        <f t="shared" ref="N13:N15" si="11">"---
 layout: post
 " &amp; B$1 &amp; ": " &amp; B13 &amp; "
 " &amp; M$1 &amp; ": " &amp; M13 &amp; "
@@ -1112,29 +1106,29 @@
         <v>13</v>
       </c>
       <c r="C14" s="3">
-        <v>45313</v>
+        <v>45320</v>
       </c>
       <c r="D14" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>2024-01-22-13.md</v>
+        <v>2024-01-29-13.md</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="7"/>
-        <v>13. A Common Language</v>
+        <v>13. Converted Conquerors</v>
       </c>
       <c r="H14">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="9"/>
-        <v>13-A-Common-Language</v>
+        <v>13-Converted-Conquerors</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="10"/>
@@ -1155,29 +1149,29 @@
         <v>14</v>
       </c>
       <c r="C15" s="3">
-        <v>45320</v>
+        <v>45327</v>
       </c>
       <c r="D15" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>2024-01-29-14.md</v>
+        <v>2024-02-05-14.md</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="7"/>
-        <v>14. Converted Conquerors</v>
+        <v>14. Perceptions</v>
       </c>
       <c r="H15">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="9"/>
-        <v>14-Converted-Conquerors</v>
+        <v>14-Perceptions</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="10"/>
@@ -1189,49 +1183,6 @@
 layout: post
 session: 14
 tags: [14]
-level: overview
----</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3">
-        <v>45327</v>
-      </c>
-      <c r="D16" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>2024-02-05-15.md</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="7"/>
-        <v>15. Perceptions</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="9"/>
-        <v>15-Perceptions</v>
-      </c>
-      <c r="M16" t="str">
-        <f t="shared" si="10"/>
-        <v>[15]</v>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" si="11"/>
-        <v>---
-layout: post
-session: 15
-tags: [15]
 level: overview
 ---</v>
       </c>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23entangled/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55F5324-0091-454E-88C3-15F6E3070AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD956A8A-1D7E-CB45-B3D8-1899965B6259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>filename</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Rules &amp; Rulers/Tradition</t>
+  </si>
+  <si>
+    <t>Relate the early Jesus movement to Messianic ideas in Second-Temple Judaism.</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -781,6 +784,9 @@
         <f t="shared" si="5"/>
         <v>5-Messiah-Covenant</v>
       </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
         <v>[5]</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23entangled/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD956A8A-1D7E-CB45-B3D8-1899965B6259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70F35D0-D4A5-7840-BC84-0B2A2CDBC47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>filename</t>
   </si>
@@ -172,6 +172,13 @@
   </si>
   <si>
     <t>Relate the early Jesus movement to Messianic ideas in Second-Temple Judaism.</t>
+  </si>
+  <si>
+    <t>Explain how (1) the text of the New Testament, (2) theological disputes between religious authorities, and (3) lived religion should be taken into account in the process of Judaism and Christianity becoming distinct religions.</t>
+  </si>
+  <si>
+    <t>1. Describe what martyrs contributed to the ideology of late antique religion.
+2. Give some examples of political, cultural, and religious differences between eastern and western Christian and Jewish communities.</t>
   </si>
 </sst>
 </file>
@@ -219,13 +226,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,7 +513,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -830,6 +838,9 @@
         <f t="shared" si="5"/>
         <v>6-Parting-of-the-Ways</v>
       </c>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
         <v>[6]</v>
@@ -872,6 +883,9 @@
       <c r="J8" t="str">
         <f t="shared" si="5"/>
         <v>7-Martyrs/East-West</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23entangled/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70F35D0-D4A5-7840-BC84-0B2A2CDBC47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA2CD0F-A774-D546-B0CC-F5FF90FDB938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
+    <workbookView xWindow="7600" yWindow="3400" windowWidth="36000" windowHeight="22500" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>filename</t>
   </si>
@@ -179,6 +179,12 @@
   <si>
     <t>1. Describe what martyrs contributed to the ideology of late antique religion.
 2. Give some examples of political, cultural, and religious differences between eastern and western Christian and Jewish communities.</t>
+  </si>
+  <si>
+    <t>Explain what can and can't be asserted about the authority of the rabbis for Jewish communities in the first few centuries CE.</t>
+  </si>
+  <si>
+    <t>Outline some of the ways the Quran engages with Judaism and Christianity, and assess the historical basis for these features.</t>
   </si>
 </sst>
 </file>
@@ -226,14 +232,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,7 +518,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -884,7 +889,7 @@
         <f t="shared" si="5"/>
         <v>7-Martyrs/East-West</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" t="s">
         <v>46</v>
       </c>
       <c r="M8" t="str">
@@ -930,6 +935,9 @@
         <f t="shared" si="5"/>
         <v>8-Rabbis</v>
       </c>
+      <c r="L9" t="s">
+        <v>47</v>
+      </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
         <v>[8]</v>
@@ -972,6 +980,9 @@
       <c r="J10" t="str">
         <f t="shared" si="5"/>
         <v>9-A-New-Prophet</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="0"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23entangled/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA2CD0F-A774-D546-B0CC-F5FF90FDB938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE457737-1DC8-7347-865D-BE9CA5D7A679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7600" yWindow="3400" windowWidth="36000" windowHeight="22500" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>filename</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Outline some of the ways the Quran engages with Judaism and Christianity, and assess the historical basis for these features.</t>
+  </si>
+  <si>
+    <t>For the formation of the early Islamic community, identify which aspects can be traced and which ones remain open questions.</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1027,6 +1030,9 @@
         <f t="shared" si="5"/>
         <v>10-A-New-Community</v>
       </c>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
       <c r="M11" t="str">
         <f t="shared" si="0"/>
         <v>[10]</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Academic/Teaching/GU/24S/24S Interkulturelle Kommunikationswege/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24inter/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA5306B-2162-FC46-A5FE-AFF202509122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5837A820-B767-7D48-BD53-E3175B1DCC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,9 +216,6 @@
     <t>color-blocks.jpg</t>
   </si>
   <si>
-    <t>Discuss the course outline, shared expectations, and goals.</t>
-  </si>
-  <si>
     <t>Describe some relationships between communal ideals and group conversion.</t>
   </si>
   <si>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t>girl-bridge.jpg</t>
+  </si>
+  <si>
+    <t>Ihre Rolle in diesem Seminar vorzustellen.</t>
   </si>
 </sst>
 </file>
@@ -772,7 +772,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -814,7 +814,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -853,13 +853,13 @@
         <v>2024-04-15-1.md</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H14" si="1">B2 &amp; ". " &amp; F2</f>
@@ -877,7 +877,7 @@
         <v>1-Vorstellungen</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="N2" t="str">
         <f t="shared" ref="N2:N14" si="4">"["&amp;B2&amp;"]"</f>
@@ -910,13 +910,13 @@
         <v>2024-04-22-2.md</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="1"/>
@@ -934,10 +934,10 @@
         <v>2-Kommunikationswege</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="4"/>
@@ -970,13 +970,13 @@
         <v>2024-04-29-3.md</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
@@ -994,7 +994,7 @@
         <v>3-Zugehörigkeit</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
@@ -1025,13 +1025,13 @@
         <v>2024-05-06-4.md</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
@@ -1075,13 +1075,13 @@
         <v>2024-05-13-5.md</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
@@ -1099,10 +1099,10 @@
         <v>5-Gewalt-und-Druck</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="4"/>
@@ -1130,13 +1130,13 @@
         <v>2024-05-27-6.md</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
         <v>73</v>
-      </c>
-      <c r="G7" t="s">
-        <v>74</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
@@ -1185,13 +1185,13 @@
         <v>2024-06-03-7.md</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
         <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" t="s">
-        <v>45</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
@@ -1240,13 +1240,13 @@
         <v>2024-06-10-8.md</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
         <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
@@ -1267,7 +1267,7 @@
         <v>24</v>
       </c>
       <c r="M9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="4"/>
@@ -1295,13 +1295,13 @@
         <v>2024-06-17-9.md</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
@@ -1350,13 +1350,13 @@
         <v>2024-06-24-10.md</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="3"/>
@@ -1377,7 +1377,7 @@
         <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="4"/>
@@ -1405,13 +1405,13 @@
         <v>2024-07-01-11.md</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
@@ -1432,7 +1432,7 @@
         <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="4"/>
@@ -1460,13 +1460,13 @@
         <v>2024-07-08-12.md</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
         <v>67</v>
-      </c>
-      <c r="G13" t="s">
-        <v>68</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
@@ -1484,10 +1484,10 @@
         <v>12-Wandel-im-Hintergrund</v>
       </c>
       <c r="L13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="4"/>
@@ -1515,13 +1515,13 @@
         <v>2024-07-15-13.md</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
         <v>50</v>
       </c>
-      <c r="F14" t="s">
-        <v>51</v>
-      </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
@@ -1532,7 +1532,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="3"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24inter/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5837A820-B767-7D48-BD53-E3175B1DCC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CA0687-80EE-7C4A-BC88-CEC66AA2411C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,9 +228,6 @@
     <t>Discuss the role of religion in the process of radicalization.</t>
   </si>
   <si>
-    <t>Grasp how the principles of participant observation can contribute to intercultural and interreligious communication.</t>
-  </si>
-  <si>
     <t>Identify some cultural dimensions to be aware of when starting cross-cultural conversations.</t>
   </si>
   <si>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t>Ihre Rolle in diesem Seminar vorzustellen.</t>
+  </si>
+  <si>
+    <t>Praktiken der teilnehmenden Beobachtung auf die interkulturelle Kommunikation anwenden können.</t>
   </si>
 </sst>
 </file>
@@ -772,7 +772,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -814,7 +814,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -853,13 +853,13 @@
         <v>2024-04-15-1.md</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H14" si="1">B2 &amp; ". " &amp; F2</f>
@@ -877,7 +877,7 @@
         <v>1-Vorstellungen</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N2" t="str">
         <f t="shared" ref="N2:N14" si="4">"["&amp;B2&amp;"]"</f>
@@ -910,13 +910,13 @@
         <v>2024-04-22-2.md</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="1"/>
@@ -934,10 +934,10 @@
         <v>2-Kommunikationswege</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="4"/>
@@ -970,13 +970,13 @@
         <v>2024-04-29-3.md</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
@@ -994,7 +994,7 @@
         <v>3-Zugehörigkeit</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
@@ -1025,13 +1025,13 @@
         <v>2024-05-06-4.md</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
@@ -1075,13 +1075,13 @@
         <v>2024-05-13-5.md</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
@@ -1099,7 +1099,7 @@
         <v>5-Gewalt-und-Druck</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s">
         <v>35</v>
@@ -1130,13 +1130,13 @@
         <v>2024-05-27-6.md</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
         <v>72</v>
-      </c>
-      <c r="G7" t="s">
-        <v>73</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
@@ -1185,13 +1185,13 @@
         <v>2024-06-03-7.md</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
         <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
@@ -1240,13 +1240,13 @@
         <v>2024-06-10-8.md</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
         <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
@@ -1295,13 +1295,13 @@
         <v>2024-06-17-9.md</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
@@ -1350,13 +1350,13 @@
         <v>2024-06-24-10.md</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="3"/>
@@ -1405,13 +1405,13 @@
         <v>2024-07-01-11.md</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
@@ -1460,13 +1460,13 @@
         <v>2024-07-08-12.md</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
         <v>66</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
@@ -1484,10 +1484,10 @@
         <v>12-Wandel-im-Hintergrund</v>
       </c>
       <c r="L13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="4"/>
@@ -1515,13 +1515,13 @@
         <v>2024-07-15-13.md</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
         <v>49</v>
       </c>
-      <c r="F14" t="s">
-        <v>50</v>
-      </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
@@ -1532,7 +1532,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="3"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24inter/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CA0687-80EE-7C4A-BC88-CEC66AA2411C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAD02B2-8985-B54E-A70E-D21FFE1AF117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,9 +189,6 @@
     <t>[srowigRadikalisierungIndividuenUeberblick2018]</t>
   </si>
   <si>
-    <t>Give some examples of ways that someone might belong to more than one religion.</t>
-  </si>
-  <si>
     <t>Describe some legal and political factors that can contribute to conversion or discourage it.</t>
   </si>
   <si>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t>Praktiken der teilnehmenden Beobachtung auf die interkulturelle Kommunikation anwenden können.</t>
+  </si>
+  <si>
+    <t>Das Spektrum in den Griff bekommen, was es bedeuten kann, einer Religion zuzugehören.</t>
   </si>
 </sst>
 </file>
@@ -772,7 +772,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -814,7 +814,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -853,13 +853,13 @@
         <v>2024-04-15-1.md</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H14" si="1">B2 &amp; ". " &amp; F2</f>
@@ -877,7 +877,7 @@
         <v>1-Vorstellungen</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N2" t="str">
         <f t="shared" ref="N2:N14" si="4">"["&amp;B2&amp;"]"</f>
@@ -910,13 +910,13 @@
         <v>2024-04-22-2.md</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="1"/>
@@ -927,17 +927,17 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="3"/>
         <v>2-Kommunikationswege</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="4"/>
@@ -970,13 +970,13 @@
         <v>2024-04-29-3.md</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
@@ -994,10 +994,10 @@
         <v>3-Zugehörigkeit</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="4"/>
@@ -1025,13 +1025,13 @@
         <v>2024-05-06-4.md</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
@@ -1075,13 +1075,13 @@
         <v>2024-05-13-5.md</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
@@ -1099,10 +1099,10 @@
         <v>5-Gewalt-und-Druck</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="4"/>
@@ -1130,13 +1130,13 @@
         <v>2024-05-27-6.md</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
         <v>71</v>
-      </c>
-      <c r="G7" t="s">
-        <v>72</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
@@ -1147,7 +1147,7 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="3"/>
@@ -1157,7 +1157,7 @@
         <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="4"/>
@@ -1185,13 +1185,13 @@
         <v>2024-06-03-7.md</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
         <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
@@ -1202,7 +1202,7 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="3"/>
@@ -1212,7 +1212,7 @@
         <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="4"/>
@@ -1240,13 +1240,13 @@
         <v>2024-06-10-8.md</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
         <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
@@ -1257,7 +1257,7 @@
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="3"/>
@@ -1267,7 +1267,7 @@
         <v>24</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="4"/>
@@ -1295,13 +1295,13 @@
         <v>2024-06-17-9.md</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
@@ -1322,7 +1322,7 @@
         <v>22</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="4"/>
@@ -1350,13 +1350,13 @@
         <v>2024-06-24-10.md</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="3"/>
@@ -1377,7 +1377,7 @@
         <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="4"/>
@@ -1405,13 +1405,13 @@
         <v>2024-07-01-11.md</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
@@ -1422,7 +1422,7 @@
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="3"/>
@@ -1432,7 +1432,7 @@
         <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="4"/>
@@ -1460,13 +1460,13 @@
         <v>2024-07-08-12.md</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
         <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>66</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
@@ -1484,10 +1484,10 @@
         <v>12-Wandel-im-Hintergrund</v>
       </c>
       <c r="L13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="4"/>
@@ -1515,13 +1515,13 @@
         <v>2024-07-15-13.md</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
         <v>48</v>
       </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
@@ -1532,7 +1532,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="3"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24inter/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAD02B2-8985-B54E-A70E-D21FFE1AF117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E5FA20-8011-E54B-BD0D-3A5BDBD043E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>blank</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>Das Spektrum in den Griff bekommen, was es bedeuten kann, einer Religion zuzugehören.</t>
+  </si>
+  <si>
+    <t>[vogelStreitNichtNur2018b]</t>
+  </si>
+  <si>
+    <t>Einige soziale Funktionen der religiösen Exklusivität nennen, am Beispiel der frühen Juden und Christen.</t>
   </si>
 </sst>
 </file>
@@ -772,7 +778,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1048,7 +1054,12 @@
         <f t="shared" si="3"/>
         <v>4-Exklusivität</v>
       </c>
-      <c r="L5" s="10"/>
+      <c r="L5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="s">
+        <v>80</v>
+      </c>
       <c r="N5" t="str">
         <f t="shared" si="4"/>
         <v>[4]</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24inter/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E5FA20-8011-E54B-BD0D-3A5BDBD043E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D036889A-41DC-E647-B0BB-389B981260E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,10 +348,10 @@
     <t>Das Spektrum in den Griff bekommen, was es bedeuten kann, einer Religion zuzugehören.</t>
   </si>
   <si>
-    <t>[vogelStreitNichtNur2018b]</t>
-  </si>
-  <si>
     <t>Einige soziale Funktionen der religiösen Exklusivität nennen, am Beispiel der frühen Juden und Christen.</t>
+  </si>
+  <si>
+    <t>vogelStreitNichtNur2018b</t>
   </si>
 </sst>
 </file>
@@ -778,7 +778,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1055,10 +1055,10 @@
         <v>4-Exklusivität</v>
       </c>
       <c r="L5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="s">
         <v>79</v>
-      </c>
-      <c r="M5" t="s">
-        <v>80</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="4"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24inter/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D036889A-41DC-E647-B0BB-389B981260E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A59C3BE-BABB-834F-B3F7-8B75EB541254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10480" yWindow="5200" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -213,9 +213,6 @@
     <t>color-blocks.jpg</t>
   </si>
   <si>
-    <t>Describe some relationships between communal ideals and group conversion.</t>
-  </si>
-  <si>
     <t>Discuss whether leaving a religion is a process similar to conversion.</t>
   </si>
   <si>
@@ -333,9 +330,6 @@
     <t>[merkensTeilnehmendeBeobachtungGrundlagen2007a]</t>
   </si>
   <si>
-    <t>[stroumsaAcculturationConversionIslamic2016b, sahnerMassConversionChristians2020b]</t>
-  </si>
-  <si>
     <t>girl-bridge.jpg</t>
   </si>
   <si>
@@ -352,6 +346,12 @@
   </si>
   <si>
     <t>vogelStreitNichtNur2018b</t>
+  </si>
+  <si>
+    <t>Arten und Auswirkungen des sozialen Drucks auf die Religionszugehörigkeit im Fall von Juden und Christen in Andalusien skizzieren.</t>
+  </si>
+  <si>
+    <t>stroumsaAcculturationConversionIslamic2016b</t>
   </si>
 </sst>
 </file>
@@ -777,7 +777,7 @@
   </sheetPr>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -820,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -859,13 +859,13 @@
         <v>2024-04-15-1.md</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H14" si="1">B2 &amp; ". " &amp; F2</f>
@@ -883,7 +883,7 @@
         <v>1-Vorstellungen</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N2" t="str">
         <f t="shared" ref="N2:N14" si="4">"["&amp;B2&amp;"]"</f>
@@ -916,13 +916,13 @@
         <v>2024-04-22-2.md</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="1"/>
@@ -940,10 +940,10 @@
         <v>2-Kommunikationswege</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="4"/>
@@ -976,13 +976,13 @@
         <v>2024-04-29-3.md</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
@@ -1000,10 +1000,10 @@
         <v>3-Zugehörigkeit</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="4"/>
@@ -1031,13 +1031,13 @@
         <v>2024-05-06-4.md</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
@@ -1055,10 +1055,10 @@
         <v>4-Exklusivität</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="4"/>
@@ -1086,13 +1086,13 @@
         <v>2024-05-13-5.md</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
@@ -1110,10 +1110,10 @@
         <v>5-Gewalt-und-Druck</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="4"/>
@@ -1141,13 +1141,13 @@
         <v>2024-05-27-6.md</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
         <v>70</v>
-      </c>
-      <c r="G7" t="s">
-        <v>71</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
@@ -1196,13 +1196,13 @@
         <v>2024-06-03-7.md</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
@@ -1251,13 +1251,13 @@
         <v>2024-06-10-8.md</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
         <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
@@ -1278,7 +1278,7 @@
         <v>24</v>
       </c>
       <c r="M9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="4"/>
@@ -1306,13 +1306,13 @@
         <v>2024-06-17-9.md</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
@@ -1361,13 +1361,13 @@
         <v>2024-06-24-10.md</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
@@ -1378,7 +1378,7 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="3"/>
@@ -1388,7 +1388,7 @@
         <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="4"/>
@@ -1416,13 +1416,13 @@
         <v>2024-07-01-11.md</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
@@ -1443,7 +1443,7 @@
         <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="4"/>
@@ -1471,13 +1471,13 @@
         <v>2024-07-08-12.md</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
         <v>64</v>
-      </c>
-      <c r="G13" t="s">
-        <v>65</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
@@ -1495,10 +1495,10 @@
         <v>12-Wandel-im-Hintergrund</v>
       </c>
       <c r="L13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="4"/>
@@ -1526,13 +1526,13 @@
         <v>2024-07-15-13.md</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
         <v>47</v>
       </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
@@ -1543,7 +1543,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="3"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24inter/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A59C3BE-BABB-834F-B3F7-8B75EB541254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283A30EE-5C87-0741-8FCC-4EDA6A416B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10480" yWindow="5200" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>blank</t>
   </si>
@@ -171,9 +171,6 @@
     <t>teapot.jpg</t>
   </si>
   <si>
-    <t>[stroumsaAcculturationConversionIslamic2016a, restallNewConquestHistory2012a]</t>
-  </si>
-  <si>
     <t>[nesbittIntroduction2016]</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>[srowigRadikalisierungIndividuenUeberblick2018]</t>
   </si>
   <si>
-    <t>Describe some legal and political factors that can contribute to conversion or discourage it.</t>
-  </si>
-  <si>
     <t>Identify some of the ways religions embrace outside ideas and give some examples.</t>
   </si>
   <si>
@@ -352,6 +346,9 @@
   </si>
   <si>
     <t>stroumsaAcculturationConversionIslamic2016b</t>
+  </si>
+  <si>
+    <t>pollackIntegrationUndReligion2016b</t>
   </si>
 </sst>
 </file>
@@ -778,7 +775,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -820,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -859,13 +856,13 @@
         <v>2024-04-15-1.md</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H14" si="1">B2 &amp; ". " &amp; F2</f>
@@ -883,7 +880,7 @@
         <v>1-Vorstellungen</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N2" t="str">
         <f t="shared" ref="N2:N14" si="4">"["&amp;B2&amp;"]"</f>
@@ -916,13 +913,13 @@
         <v>2024-04-22-2.md</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="1"/>
@@ -933,17 +930,17 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="3"/>
         <v>2-Kommunikationswege</v>
       </c>
       <c r="L3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="4"/>
@@ -976,13 +973,13 @@
         <v>2024-04-29-3.md</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
@@ -1000,10 +997,10 @@
         <v>3-Zugehörigkeit</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="4"/>
@@ -1031,13 +1028,13 @@
         <v>2024-05-06-4.md</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
@@ -1055,10 +1052,10 @@
         <v>4-Exklusivität</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="4"/>
@@ -1086,13 +1083,13 @@
         <v>2024-05-13-5.md</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
@@ -1110,10 +1107,10 @@
         <v>5-Gewalt-und-Druck</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="4"/>
@@ -1141,13 +1138,13 @@
         <v>2024-05-27-6.md</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
@@ -1158,17 +1155,14 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="3"/>
         <v>6-Migration</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="4"/>
@@ -1196,13 +1190,13 @@
         <v>2024-06-03-7.md</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
@@ -1213,17 +1207,17 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="3"/>
         <v>7-Innerer-Wandel</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="4"/>
@@ -1251,13 +1245,13 @@
         <v>2024-06-10-8.md</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
@@ -1268,17 +1262,17 @@
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="3"/>
         <v>8-Individuelle-Konversion</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="4"/>
@@ -1306,13 +1300,13 @@
         <v>2024-06-17-9.md</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
@@ -1330,10 +1324,10 @@
         <v>9-Aufrechterhaltung</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="4"/>
@@ -1361,13 +1355,13 @@
         <v>2024-06-24-10.md</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
         <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
@@ -1378,17 +1372,17 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="3"/>
         <v>10-Dekonversion</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="4"/>
@@ -1416,13 +1410,13 @@
         <v>2024-07-01-11.md</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
@@ -1433,17 +1427,17 @@
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="3"/>
         <v>11-Radikalisierung</v>
       </c>
       <c r="L12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="4"/>
@@ -1471,13 +1465,13 @@
         <v>2024-07-08-12.md</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
@@ -1495,10 +1489,10 @@
         <v>12-Wandel-im-Hintergrund</v>
       </c>
       <c r="L13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="4"/>
@@ -1526,13 +1520,13 @@
         <v>2024-07-15-13.md</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
@@ -1543,7 +1537,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="3"/>
